--- a/public/data/source/A1.xlsx
+++ b/public/data/source/A1.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>人口出生率(‰)</t>
+          <t>常住人口出生率 ‰</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -606,7 +606,7 @@
         <v>15.47</v>
       </c>
       <c r="D2" t="n">
-        <v>20.9</v>
+        <v>20.88</v>
       </c>
       <c r="E2" t="n">
         <v>15.66</v>
@@ -614,11 +614,9 @@
       <c r="F2" t="n">
         <v>18.5</v>
       </c>
-      <c r="G2" t="n">
-        <v>18</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>19.95</v>
       </c>
       <c r="I2" t="n">
         <v>16.84</v>
@@ -660,13 +658,11 @@
         <v>24.69</v>
       </c>
       <c r="V2" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>9.91</v>
-      </c>
+        <v>24.19</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>13.08</v>
+        <v>15.1</v>
       </c>
       <c r="Y2" t="n">
         <v>28.62</v>
@@ -675,7 +671,7 @@
         <v>28.37</v>
       </c>
       <c r="AA2" t="n">
-        <v>22.86</v>
+        <v>22.9</v>
       </c>
       <c r="AB2" t="n">
         <v>17.24</v>
@@ -712,9 +708,7 @@
       <c r="F3" t="n">
         <v>18.1</v>
       </c>
-      <c r="G3" t="n">
-        <v>17</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>19.41</v>
       </c>
@@ -755,14 +749,12 @@
         <v>23.6</v>
       </c>
       <c r="U3" t="n">
-        <v>25.3</v>
+        <v>25.26</v>
       </c>
       <c r="V3" t="n">
         <v>25.9</v>
       </c>
-      <c r="W3" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
         <v>15.2</v>
       </c>
@@ -773,7 +765,7 @@
         <v>24.08</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.41</v>
+        <v>22.4</v>
       </c>
       <c r="AB3" t="n">
         <v>17.01</v>
@@ -782,10 +774,10 @@
         <v>16.54</v>
       </c>
       <c r="AD3" t="n">
-        <v>24.5</v>
+        <v>24.47</v>
       </c>
       <c r="AE3" t="n">
-        <v>27.6</v>
+        <v>27.56</v>
       </c>
       <c r="AF3" t="n">
         <v>22.54</v>
@@ -796,13 +788,13 @@
         <v>1980</v>
       </c>
       <c r="B4" t="n">
-        <v>15.58</v>
+        <v>15.56</v>
       </c>
       <c r="C4" t="n">
         <v>13.29</v>
       </c>
       <c r="D4" t="n">
-        <v>20.5</v>
+        <v>20.47</v>
       </c>
       <c r="E4" t="n">
         <v>16.95</v>
@@ -810,11 +802,9 @@
       <c r="F4" t="n">
         <v>16.5</v>
       </c>
-      <c r="G4" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>17.85</v>
+        <v>15.81</v>
       </c>
       <c r="I4" t="n">
         <v>13.49</v>
@@ -829,7 +819,7 @@
         <v>15.59</v>
       </c>
       <c r="M4" t="n">
-        <v>15.52</v>
+        <v>19.9</v>
       </c>
       <c r="N4" t="n">
         <v>18.68</v>
@@ -858,11 +848,9 @@
       <c r="V4" t="n">
         <v>24.12</v>
       </c>
-      <c r="W4" t="n">
-        <v>11.16</v>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>11.9</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
         <v>24.7</v>
@@ -871,7 +859,7 @@
         <v>20.91</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.36</v>
+        <v>21.4</v>
       </c>
       <c r="AB4" t="n">
         <v>15.16</v>
@@ -894,7 +882,7 @@
         <v>1981</v>
       </c>
       <c r="B5" t="n">
-        <v>17.65</v>
+        <v>16.93</v>
       </c>
       <c r="C5" t="n">
         <v>17.9</v>
@@ -908,17 +896,15 @@
       <c r="F5" t="n">
         <v>17.3</v>
       </c>
-      <c r="G5" t="n">
-        <v>16.6</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>15.67</v>
+        <v>17.67</v>
       </c>
       <c r="I5" t="n">
         <v>13.07</v>
       </c>
       <c r="J5" t="n">
-        <v>16.79</v>
+        <v>16.8</v>
       </c>
       <c r="K5" t="n">
         <v>16.83</v>
@@ -927,7 +913,7 @@
         <v>17.93</v>
       </c>
       <c r="M5" t="n">
-        <v>14.18</v>
+        <v>18.73</v>
       </c>
       <c r="N5" t="n">
         <v>23.4</v>
@@ -942,33 +928,29 @@
         <v>20.64</v>
       </c>
       <c r="R5" t="n">
-        <v>16.33</v>
+        <v>20.17</v>
       </c>
       <c r="S5" t="n">
         <v>21.11</v>
       </c>
       <c r="T5" t="n">
-        <v>21.77</v>
+        <v>24.47</v>
       </c>
       <c r="U5" t="n">
-        <v>22.52</v>
+        <v>27.3</v>
       </c>
       <c r="V5" t="n">
         <v>23.1</v>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>17.95</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
         <v>23.72</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.23</v>
+        <v>25.36</v>
       </c>
       <c r="AA5" t="n">
         <v>24.4</v>
@@ -977,13 +959,13 @@
         <v>17.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>16.56</v>
+        <v>20.12</v>
       </c>
       <c r="AD5" t="n">
         <v>20.86</v>
       </c>
       <c r="AE5" t="n">
-        <v>24.67</v>
+        <v>29.65</v>
       </c>
       <c r="AF5" t="n">
         <v>21.09</v>
@@ -1000,7 +982,7 @@
         <v>20.05</v>
       </c>
       <c r="D6" t="n">
-        <v>19.4</v>
+        <v>19.35</v>
       </c>
       <c r="E6" t="n">
         <v>21.07</v>
@@ -1008,17 +990,15 @@
       <c r="F6" t="n">
         <v>21.2</v>
       </c>
-      <c r="G6" t="n">
-        <v>18.9</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>16.8</v>
+        <v>16.76</v>
       </c>
       <c r="I6" t="n">
         <v>15.52</v>
       </c>
       <c r="J6" t="n">
-        <v>18.51</v>
+        <v>18.5</v>
       </c>
       <c r="K6" t="n">
         <v>16.43</v>
@@ -1051,16 +1031,14 @@
         <v>23.09</v>
       </c>
       <c r="U6" t="n">
-        <v>26.9</v>
+        <v>26.88</v>
       </c>
       <c r="V6" t="n">
         <v>22.44</v>
       </c>
-      <c r="W6" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>15.83</v>
+        <v>15.8</v>
       </c>
       <c r="Y6" t="n">
         <v>24.81</v>
@@ -1069,7 +1047,7 @@
         <v>23.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>24.47</v>
+        <v>24.5</v>
       </c>
       <c r="AB6" t="n">
         <v>19.02</v>
@@ -1078,10 +1056,10 @@
         <v>19.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.5</v>
+        <v>19.46</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>28.95</v>
       </c>
       <c r="AF6" t="n">
         <v>21.16</v>
@@ -1098,7 +1076,7 @@
         <v>17.14</v>
       </c>
       <c r="D7" t="n">
-        <v>17.9</v>
+        <v>17.91</v>
       </c>
       <c r="E7" t="n">
         <v>20.81</v>
@@ -1106,11 +1084,9 @@
       <c r="F7" t="n">
         <v>20</v>
       </c>
-      <c r="G7" t="n">
-        <v>13.4</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>12.92</v>
+        <v>12.38</v>
       </c>
       <c r="I7" t="n">
         <v>17.54</v>
@@ -1137,7 +1113,7 @@
         <v>15.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.31</v>
+        <v>20.38</v>
       </c>
       <c r="R7" t="n">
         <v>20.53</v>
@@ -1149,16 +1125,14 @@
         <v>21</v>
       </c>
       <c r="U7" t="n">
-        <v>18.68</v>
+        <v>18.52</v>
       </c>
       <c r="V7" t="n">
         <v>19.31</v>
       </c>
-      <c r="W7" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>13.13</v>
+        <v>13.1</v>
       </c>
       <c r="Y7" t="n">
         <v>20.81</v>
@@ -1167,7 +1141,7 @@
         <v>23.57</v>
       </c>
       <c r="AA7" t="n">
-        <v>27.02</v>
+        <v>27</v>
       </c>
       <c r="AB7" t="n">
         <v>15.46</v>
@@ -1179,10 +1153,10 @@
         <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.31</v>
+        <v>18.29</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.55</v>
+        <v>19.31</v>
       </c>
     </row>
     <row r="8">
@@ -1196,7 +1170,7 @@
         <v>15.67</v>
       </c>
       <c r="D8" t="n">
-        <v>16.7</v>
+        <v>16.73</v>
       </c>
       <c r="E8" t="n">
         <v>19.96</v>
@@ -1204,9 +1178,7 @@
       <c r="F8" t="n">
         <v>18.9</v>
       </c>
-      <c r="G8" t="n">
-        <v>10.8</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>11.84</v>
       </c>
@@ -1235,7 +1207,7 @@
         <v>13.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.23</v>
+        <v>18.89</v>
       </c>
       <c r="R8" t="n">
         <v>19</v>
@@ -1252,11 +1224,9 @@
       <c r="V8" t="n">
         <v>17.6</v>
       </c>
-      <c r="W8" t="n">
-        <v>10.1</v>
-      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>10.83</v>
+        <v>10.8</v>
       </c>
       <c r="Y8" t="n">
         <v>18.85</v>
@@ -1265,7 +1235,7 @@
         <v>20.29</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.96</v>
+        <v>24</v>
       </c>
       <c r="AB8" t="n">
         <v>16.61</v>
@@ -1277,10 +1247,10 @@
         <v>15.94</v>
       </c>
       <c r="AE8" t="n">
-        <v>18.61</v>
+        <v>18.58</v>
       </c>
       <c r="AF8" t="n">
-        <v>19.87</v>
+        <v>19.76</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1258,7 @@
         <v>1985</v>
       </c>
       <c r="B9" t="n">
-        <v>14.43</v>
+        <v>15.45</v>
       </c>
       <c r="C9" t="n">
         <v>13.94</v>
@@ -1302,17 +1272,15 @@
       <c r="F9" t="n">
         <v>17.2</v>
       </c>
-      <c r="G9" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>11.93</v>
+        <v>11.91</v>
       </c>
       <c r="I9" t="n">
         <v>15.04</v>
       </c>
       <c r="J9" t="n">
-        <v>12.74</v>
+        <v>12.7</v>
       </c>
       <c r="K9" t="n">
         <v>10.84</v>
@@ -1321,7 +1289,7 @@
         <v>12.61</v>
       </c>
       <c r="M9" t="n">
-        <v>12.75</v>
+        <v>15.61</v>
       </c>
       <c r="N9" t="n">
         <v>23.88</v>
@@ -1333,7 +1301,7 @@
         <v>15.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.51</v>
+        <v>20.09</v>
       </c>
       <c r="R9" t="n">
         <v>19.95</v>
@@ -1348,13 +1316,11 @@
         <v>25.51</v>
       </c>
       <c r="V9" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="W9" t="n">
-        <v>13.1</v>
-      </c>
+        <v>14.55</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>15.39</v>
+        <v>15.4</v>
       </c>
       <c r="Y9" t="n">
         <v>20.33</v>
@@ -1363,7 +1329,7 @@
         <v>21.55</v>
       </c>
       <c r="AA9" t="n">
-        <v>23.32</v>
+        <v>23.3</v>
       </c>
       <c r="AB9" t="n">
         <v>16.09</v>
@@ -1392,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>20.4</v>
+        <v>20.42</v>
       </c>
       <c r="E10" t="n">
         <v>20.28</v>
@@ -1400,9 +1366,7 @@
       <c r="F10" t="n">
         <v>19.1</v>
       </c>
-      <c r="G10" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>13.7</v>
       </c>
@@ -1431,7 +1395,7 @@
         <v>19.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.74</v>
+        <v>23.65</v>
       </c>
       <c r="R10" t="n">
         <v>21.01</v>
@@ -1443,14 +1407,12 @@
         <v>22.15</v>
       </c>
       <c r="U10" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="V10" t="n">
         <v>15.23</v>
       </c>
-      <c r="W10" t="n">
-        <v>19.54</v>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
         <v>20.5</v>
       </c>
@@ -1461,7 +1423,7 @@
         <v>26.03</v>
       </c>
       <c r="AA10" t="n">
-        <v>24.54</v>
+        <v>24.5</v>
       </c>
       <c r="AB10" t="n">
         <v>17.03</v>
@@ -1473,7 +1435,7 @@
         <v>24.94</v>
       </c>
       <c r="AE10" t="n">
-        <v>25.5</v>
+        <v>25.49</v>
       </c>
       <c r="AF10" t="n">
         <v>20.54</v>
@@ -1498,14 +1460,12 @@
       <c r="F11" t="n">
         <v>19.7</v>
       </c>
-      <c r="G11" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>18.2</v>
+        <v>15.35</v>
       </c>
       <c r="I11" t="n">
-        <v>19.23</v>
+        <v>19</v>
       </c>
       <c r="J11" t="n">
         <v>15.3</v>
@@ -1517,7 +1477,7 @@
         <v>17.01</v>
       </c>
       <c r="M11" t="n">
-        <v>18.92</v>
+        <v>18.9</v>
       </c>
       <c r="N11" t="n">
         <v>24.91</v>
@@ -1546,9 +1506,7 @@
       <c r="V11" t="n">
         <v>14.83</v>
       </c>
-      <c r="W11" t="n">
-        <v>17.24</v>
-      </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
         <v>17.9</v>
       </c>
@@ -1559,7 +1517,7 @@
         <v>23.97</v>
       </c>
       <c r="AA11" t="n">
-        <v>24.19</v>
+        <v>24.2</v>
       </c>
       <c r="AB11" t="n">
         <v>16.78</v>
@@ -1568,7 +1526,7 @@
         <v>20.55</v>
       </c>
       <c r="AD11" t="n">
-        <v>22.6</v>
+        <v>22.59</v>
       </c>
       <c r="AE11" t="n">
         <v>25.14</v>
@@ -1588,7 +1546,7 @@
         <v>15.92</v>
       </c>
       <c r="D12" t="n">
-        <v>20.4</v>
+        <v>20.35</v>
       </c>
       <c r="E12" t="n">
         <v>22.17</v>
@@ -1596,11 +1554,9 @@
       <c r="F12" t="n">
         <v>19</v>
       </c>
-      <c r="G12" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>18.35</v>
+        <v>14.1</v>
       </c>
       <c r="I12" t="n">
         <v>17.12</v>
@@ -1615,7 +1571,7 @@
         <v>15.54</v>
       </c>
       <c r="M12" t="n">
-        <v>20.81</v>
+        <v>20.8</v>
       </c>
       <c r="N12" t="n">
         <v>24.34</v>
@@ -1639,14 +1595,12 @@
         <v>20.9</v>
       </c>
       <c r="U12" t="n">
-        <v>22.2</v>
+        <v>22.18</v>
       </c>
       <c r="V12" t="n">
         <v>20.63</v>
       </c>
-      <c r="W12" t="n">
-        <v>13.49</v>
-      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
         <v>18.3</v>
       </c>
@@ -1657,7 +1611,7 @@
         <v>24.01</v>
       </c>
       <c r="AA12" t="n">
-        <v>22.69</v>
+        <v>22.7</v>
       </c>
       <c r="AB12" t="n">
         <v>21.04</v>
@@ -1669,7 +1623,7 @@
         <v>24.33</v>
       </c>
       <c r="AE12" t="n">
-        <v>24.8</v>
+        <v>24.79</v>
       </c>
       <c r="AF12" t="n">
         <v>19.72</v>
@@ -1686,7 +1640,7 @@
         <v>15.5</v>
       </c>
       <c r="D13" t="n">
-        <v>20.2</v>
+        <v>20.19</v>
       </c>
       <c r="E13" t="n">
         <v>21.38</v>
@@ -1694,17 +1648,15 @@
       <c r="F13" t="n">
         <v>19.3</v>
       </c>
-      <c r="G13" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>19.35</v>
+        <v>17</v>
       </c>
       <c r="I13" t="n">
         <v>18.84</v>
       </c>
       <c r="J13" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="K13" t="n">
         <v>17.15</v>
@@ -1713,7 +1665,7 @@
         <v>15.2</v>
       </c>
       <c r="M13" t="n">
-        <v>23.61</v>
+        <v>23.6</v>
       </c>
       <c r="N13" t="n">
         <v>24.67</v>
@@ -1740,11 +1692,9 @@
         <v>20.34</v>
       </c>
       <c r="V13" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>13.79</v>
-      </c>
+        <v>23.48</v>
+      </c>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
         <v>19.1</v>
       </c>
@@ -1755,19 +1705,19 @@
         <v>23.07</v>
       </c>
       <c r="AA13" t="n">
-        <v>24.17</v>
+        <v>24.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>22.25</v>
+        <v>17.3</v>
       </c>
       <c r="AC13" t="n">
         <v>22.57</v>
       </c>
       <c r="AD13" t="n">
-        <v>23.7</v>
+        <v>23.66</v>
       </c>
       <c r="AE13" t="n">
-        <v>23.6</v>
+        <v>23.59</v>
       </c>
       <c r="AF13" t="n">
         <v>21.15</v>
@@ -1778,13 +1728,13 @@
         <v>1990</v>
       </c>
       <c r="B14" t="n">
-        <v>13.01</v>
+        <v>13.04</v>
       </c>
       <c r="C14" t="n">
-        <v>15.61</v>
+        <v>15.62</v>
       </c>
       <c r="D14" t="n">
-        <v>20.5</v>
+        <v>20.46</v>
       </c>
       <c r="E14" t="n">
         <v>22.54</v>
@@ -1793,7 +1743,7 @@
         <v>21.2</v>
       </c>
       <c r="G14" t="n">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
       <c r="H14" t="n">
         <v>19.49</v>
@@ -1802,7 +1752,7 @@
         <v>18.11</v>
       </c>
       <c r="J14" t="n">
-        <v>10.31</v>
+        <v>10.2</v>
       </c>
       <c r="K14" t="n">
         <v>20.54</v>
@@ -1838,13 +1788,11 @@
         <v>20.2</v>
       </c>
       <c r="V14" t="n">
-        <v>24.86</v>
-      </c>
-      <c r="W14" t="n">
-        <v>14.62</v>
-      </c>
+        <v>24.88</v>
+      </c>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>19.11</v>
+        <v>19.1</v>
       </c>
       <c r="Y14" t="n">
         <v>23.09</v>
@@ -1853,7 +1801,7 @@
         <v>23.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.63</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
         <v>23.48</v>
@@ -1868,7 +1816,7 @@
         <v>24.34</v>
       </c>
       <c r="AF14" t="n">
-        <v>26.44</v>
+        <v>26.41</v>
       </c>
     </row>
     <row r="15">
@@ -1882,7 +1830,7 @@
         <v>11.94</v>
       </c>
       <c r="D15" t="n">
-        <v>16.6</v>
+        <v>16.61</v>
       </c>
       <c r="E15" t="n">
         <v>21.56</v>
@@ -1900,7 +1848,7 @@
         <v>15.89</v>
       </c>
       <c r="J15" t="n">
-        <v>7.68</v>
+        <v>7.8</v>
       </c>
       <c r="K15" t="n">
         <v>17.05</v>
@@ -1930,19 +1878,17 @@
         <v>20.5</v>
       </c>
       <c r="T15" t="n">
-        <v>20.54</v>
+        <v>20.4</v>
       </c>
       <c r="U15" t="n">
         <v>21.89</v>
       </c>
       <c r="V15" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="W15" t="n">
-        <v>12.83</v>
-      </c>
+        <v>23.03</v>
+      </c>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
-        <v>15.82</v>
+        <v>15.8</v>
       </c>
       <c r="Y15" t="n">
         <v>22.42</v>
@@ -1951,7 +1897,7 @@
         <v>21.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.53</v>
+        <v>24.5</v>
       </c>
       <c r="AB15" t="n">
         <v>19.82</v>
@@ -1980,7 +1926,7 @@
         <v>12.5</v>
       </c>
       <c r="D16" t="n">
-        <v>15.3</v>
+        <v>15.33</v>
       </c>
       <c r="E16" t="n">
         <v>19.59</v>
@@ -2028,19 +1974,17 @@
         <v>16.7</v>
       </c>
       <c r="T16" t="n">
-        <v>19.31</v>
+        <v>18.92</v>
       </c>
       <c r="U16" t="n">
         <v>20.19</v>
       </c>
       <c r="V16" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="W16" t="n">
-        <v>12.09</v>
-      </c>
+        <v>21.35</v>
+      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="n">
-        <v>16.27</v>
+        <v>16.3</v>
       </c>
       <c r="Y16" t="n">
         <v>22.4</v>
@@ -2049,7 +1993,7 @@
         <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.64</v>
+        <v>23.6</v>
       </c>
       <c r="AB16" t="n">
         <v>18.85</v>
@@ -2078,7 +2022,7 @@
         <v>10.71</v>
       </c>
       <c r="D17" t="n">
-        <v>15.4</v>
+        <v>15.43</v>
       </c>
       <c r="E17" t="n">
         <v>17.48</v>
@@ -2114,7 +2058,7 @@
         <v>20.33</v>
       </c>
       <c r="P17" t="n">
-        <v>10.47</v>
+        <v>10.49</v>
       </c>
       <c r="Q17" t="n">
         <v>15.87</v>
@@ -2126,19 +2070,17 @@
         <v>14.08</v>
       </c>
       <c r="T17" t="n">
-        <v>18.34</v>
+        <v>17.59</v>
       </c>
       <c r="U17" t="n">
         <v>19.58</v>
       </c>
       <c r="V17" t="n">
-        <v>20.81</v>
-      </c>
-      <c r="W17" t="n">
-        <v>12.09</v>
-      </c>
+        <v>21.01</v>
+      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
-        <v>16.77</v>
+        <v>16.8</v>
       </c>
       <c r="Y17" t="n">
         <v>22.6</v>
@@ -2147,7 +2089,7 @@
         <v>22</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.32</v>
+        <v>23.8</v>
       </c>
       <c r="AB17" t="n">
         <v>17.63</v>
@@ -2176,7 +2118,7 @@
         <v>10.98</v>
       </c>
       <c r="D18" t="n">
-        <v>14.9</v>
+        <v>14.93</v>
       </c>
       <c r="E18" t="n">
         <v>17.46</v>
@@ -2194,7 +2136,7 @@
         <v>15.15</v>
       </c>
       <c r="J18" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K18" t="n">
         <v>13.78</v>
@@ -2224,7 +2166,7 @@
         <v>13.88</v>
       </c>
       <c r="T18" t="n">
-        <v>18.2</v>
+        <v>17.11</v>
       </c>
       <c r="U18" t="n">
         <v>18.84</v>
@@ -2232,11 +2174,9 @@
       <c r="V18" t="n">
         <v>20.77</v>
       </c>
-      <c r="W18" t="n">
-        <v>13.46</v>
-      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="n">
-        <v>16.93</v>
+        <v>16.9</v>
       </c>
       <c r="Y18" t="n">
         <v>22.92</v>
@@ -2245,7 +2185,7 @@
         <v>21.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.53</v>
+        <v>24.9</v>
       </c>
       <c r="AB18" t="n">
         <v>17.59</v>
@@ -2292,7 +2232,7 @@
         <v>13.23</v>
       </c>
       <c r="J19" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="K19" t="n">
         <v>12.32</v>
@@ -2322,7 +2262,7 @@
         <v>13.02</v>
       </c>
       <c r="T19" t="n">
-        <v>18.1</v>
+        <v>16.93</v>
       </c>
       <c r="U19" t="n">
         <v>17.54</v>
@@ -2330,11 +2270,9 @@
       <c r="V19" t="n">
         <v>20.12</v>
       </c>
-      <c r="W19" t="n">
-        <v>13.16</v>
-      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
-        <v>17.08</v>
+        <v>17.1</v>
       </c>
       <c r="Y19" t="n">
         <v>21.86</v>
@@ -2372,7 +2310,7 @@
         <v>10.09</v>
       </c>
       <c r="D20" t="n">
-        <v>13.9</v>
+        <v>13.85</v>
       </c>
       <c r="E20" t="n">
         <v>16.59</v>
@@ -2390,7 +2328,7 @@
         <v>12.4</v>
       </c>
       <c r="J20" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="K20" t="n">
         <v>12.11</v>
@@ -2420,7 +2358,7 @@
         <v>12.81</v>
       </c>
       <c r="T20" t="n">
-        <v>18.05</v>
+        <v>16.69</v>
       </c>
       <c r="U20" t="n">
         <v>16.83</v>
@@ -2428,11 +2366,9 @@
       <c r="V20" t="n">
         <v>20.08</v>
       </c>
-      <c r="W20" t="n">
-        <v>13.63</v>
-      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="n">
-        <v>16.68</v>
+        <v>16.6</v>
       </c>
       <c r="Y20" t="n">
         <v>22.05</v>
@@ -2488,7 +2424,7 @@
         <v>12.02</v>
       </c>
       <c r="J21" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="K21" t="n">
         <v>11.43</v>
@@ -2518,7 +2454,7 @@
         <v>12.59</v>
       </c>
       <c r="T21" t="n">
-        <v>16.9</v>
+        <v>15.43</v>
       </c>
       <c r="U21" t="n">
         <v>15.93</v>
@@ -2527,10 +2463,10 @@
         <v>19.18</v>
       </c>
       <c r="W21" t="n">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="X21" t="n">
-        <v>15.75</v>
+        <v>15.7</v>
       </c>
       <c r="Y21" t="n">
         <v>22.15</v>
@@ -2568,7 +2504,7 @@
         <v>9.890000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>13.01</v>
+        <v>13</v>
       </c>
       <c r="E22" t="n">
         <v>16.09</v>
@@ -2586,7 +2522,7 @@
         <v>11.68</v>
       </c>
       <c r="J22" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="K22" t="n">
         <v>10.97</v>
@@ -2616,7 +2552,7 @@
         <v>12.31</v>
       </c>
       <c r="T22" t="n">
-        <v>16.51</v>
+        <v>14.84</v>
       </c>
       <c r="U22" t="n">
         <v>15.87</v>
@@ -2625,10 +2561,10 @@
         <v>18.48</v>
       </c>
       <c r="W22" t="n">
-        <v>11.64</v>
+        <v>13.19</v>
       </c>
       <c r="X22" t="n">
-        <v>14.62</v>
+        <v>14.6</v>
       </c>
       <c r="Y22" t="n">
         <v>22.02</v>
@@ -2666,13 +2602,13 @@
         <v>9.68</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>12.99</v>
       </c>
       <c r="E23" t="n">
         <v>15.93</v>
       </c>
       <c r="F23" t="n">
-        <v>13.3</v>
+        <v>13.32</v>
       </c>
       <c r="G23" t="n">
         <v>10.38</v>
@@ -2714,7 +2650,7 @@
         <v>11.72</v>
       </c>
       <c r="T23" t="n">
-        <v>15.32</v>
+        <v>13.57</v>
       </c>
       <c r="U23" t="n">
         <v>14.96</v>
@@ -2723,7 +2659,7 @@
         <v>17.26</v>
       </c>
       <c r="W23" t="n">
-        <v>10.01</v>
+        <v>11.9</v>
       </c>
       <c r="X23" t="n">
         <v>13.8</v>
@@ -2758,49 +2694,49 @@
         <v>2000</v>
       </c>
       <c r="B24" t="n">
-        <v>8.390000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="C24" t="n">
-        <v>77.2</v>
+        <v>7.72</v>
       </c>
       <c r="D24" t="n">
         <v>11.3</v>
       </c>
       <c r="E24" t="n">
-        <v>21.36</v>
+        <v>12.1</v>
       </c>
       <c r="F24" t="n">
-        <v>12.1</v>
+        <v>9.9</v>
       </c>
       <c r="G24" t="n">
         <v>10.7</v>
       </c>
       <c r="H24" t="n">
-        <v>10.31</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I24" t="n">
         <v>9.43</v>
       </c>
       <c r="J24" t="n">
-        <v>5.27</v>
+        <v>5.3</v>
       </c>
       <c r="K24" t="n">
         <v>9.08</v>
       </c>
       <c r="L24" t="n">
-        <v>13.9</v>
+        <v>10.3</v>
       </c>
       <c r="M24" t="n">
-        <v>13.06</v>
+        <v>13.4</v>
       </c>
       <c r="N24" t="n">
-        <v>16.96</v>
+        <v>11.6</v>
       </c>
       <c r="O24" t="n">
         <v>15.55</v>
       </c>
       <c r="P24" t="n">
-        <v>10.75</v>
+        <v>11.38</v>
       </c>
       <c r="Q24" t="n">
         <v>13.07</v>
@@ -2812,13 +2748,13 @@
         <v>11.45</v>
       </c>
       <c r="T24" t="n">
-        <v>12.91</v>
+        <v>15.32</v>
       </c>
       <c r="U24" t="n">
         <v>13.6</v>
       </c>
       <c r="V24" t="n">
-        <v>26.12</v>
+        <v>15.67</v>
       </c>
       <c r="W24" t="n">
         <v>11.43</v>
@@ -2830,10 +2766,10 @@
         <v>20.59</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.06</v>
+        <v>19.05</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.7</v>
+        <v>19.5</v>
       </c>
       <c r="AB24" t="n">
         <v>12.5</v>
@@ -2848,7 +2784,7 @@
         <v>16.49</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.5</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="25">
@@ -2868,7 +2804,7 @@
         <v>13.06</v>
       </c>
       <c r="F25" t="n">
-        <v>10.8</v>
+        <v>10.77</v>
       </c>
       <c r="G25" t="n">
         <v>7.74</v>
@@ -2919,7 +2855,7 @@
         <v>15.23</v>
       </c>
       <c r="W25" t="n">
-        <v>8.48</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X25" t="n">
         <v>11.16</v>
@@ -2969,7 +2905,7 @@
         <v>9.6</v>
       </c>
       <c r="G26" t="n">
-        <v>7.5</v>
+        <v>7.38</v>
       </c>
       <c r="H26" t="n">
         <v>8.300000000000001</v>
@@ -3017,7 +2953,7 @@
         <v>15.2</v>
       </c>
       <c r="W26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="X26" t="n">
         <v>10.44</v>
@@ -3029,7 +2965,7 @@
         <v>17.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.83</v>
+        <v>18.8</v>
       </c>
       <c r="AB26" t="n">
         <v>10.48</v>
@@ -3052,7 +2988,7 @@
         <v>2003</v>
       </c>
       <c r="B27" t="n">
-        <v>5.1</v>
+        <v>5.06</v>
       </c>
       <c r="C27" t="n">
         <v>7.14</v>
@@ -3064,7 +3000,7 @@
         <v>12.26</v>
       </c>
       <c r="F27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="G27" t="n">
         <v>6.9</v>
@@ -3115,7 +3051,7 @@
         <v>14.68</v>
       </c>
       <c r="W27" t="n">
-        <v>9.609999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="X27" t="n">
         <v>9.18</v>
@@ -3150,7 +3086,7 @@
         <v>2004</v>
       </c>
       <c r="B28" t="n">
-        <v>6.1</v>
+        <v>6.13</v>
       </c>
       <c r="C28" t="n">
         <v>7.31</v>
@@ -3162,10 +3098,10 @@
         <v>12.36</v>
       </c>
       <c r="F28" t="n">
-        <v>9.5</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>7.7</v>
+        <v>6.51</v>
       </c>
       <c r="H28" t="n">
         <v>7.39</v>
@@ -3213,7 +3149,7 @@
         <v>14.77</v>
       </c>
       <c r="W28" t="n">
-        <v>10.74</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="X28" t="n">
         <v>9.050000000000001</v>
@@ -3260,10 +3196,10 @@
         <v>12.02</v>
       </c>
       <c r="F29" t="n">
-        <v>10.1</v>
+        <v>10.08</v>
       </c>
       <c r="G29" t="n">
-        <v>7.8</v>
+        <v>7.01</v>
       </c>
       <c r="H29" t="n">
         <v>7.89</v>
@@ -3311,7 +3247,7 @@
         <v>14.65</v>
       </c>
       <c r="W29" t="n">
-        <v>9.710000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X29" t="n">
         <v>9.699999999999999</v>
@@ -3323,7 +3259,7 @@
         <v>14.72</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.94</v>
+        <v>17.9</v>
       </c>
       <c r="AB29" t="n">
         <v>10.02</v>
@@ -3352,16 +3288,16 @@
         <v>7.67</v>
       </c>
       <c r="D30" t="n">
-        <v>12.86</v>
+        <v>12.82</v>
       </c>
       <c r="E30" t="n">
         <v>11.48</v>
       </c>
       <c r="F30" t="n">
-        <v>9.9</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="H30" t="n">
         <v>7.67</v>
@@ -3409,7 +3345,7 @@
         <v>14.59</v>
       </c>
       <c r="W30" t="n">
-        <v>11.49</v>
+        <v>9.9</v>
       </c>
       <c r="X30" t="n">
         <v>9.140000000000001</v>
@@ -3453,13 +3389,13 @@
         <v>13.33</v>
       </c>
       <c r="E31" t="n">
-        <v>11.3</v>
+        <v>11.31</v>
       </c>
       <c r="F31" t="n">
-        <v>10.2</v>
+        <v>10.21</v>
       </c>
       <c r="G31" t="n">
-        <v>8.199999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="H31" t="n">
         <v>7.55</v>
@@ -3489,7 +3425,7 @@
         <v>11.11</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.3</v>
+        <v>11.26</v>
       </c>
       <c r="R31" t="n">
         <v>9.19</v>
@@ -3507,7 +3443,7 @@
         <v>14.62</v>
       </c>
       <c r="W31" t="n">
-        <v>13.88</v>
+        <v>10.1</v>
       </c>
       <c r="X31" t="n">
         <v>9.210000000000001</v>
@@ -3551,13 +3487,13 @@
         <v>13.04</v>
       </c>
       <c r="E32" t="n">
-        <v>11.31</v>
+        <v>11.32</v>
       </c>
       <c r="F32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="G32" t="n">
-        <v>7.9</v>
+        <v>6.32</v>
       </c>
       <c r="H32" t="n">
         <v>6.65</v>
@@ -3605,7 +3541,7 @@
         <v>14.71</v>
       </c>
       <c r="W32" t="n">
-        <v>13.33</v>
+        <v>10.1</v>
       </c>
       <c r="X32" t="n">
         <v>9.539999999999999</v>
@@ -3652,10 +3588,10 @@
         <v>10.87</v>
       </c>
       <c r="F33" t="n">
-        <v>9.6</v>
+        <v>9.57</v>
       </c>
       <c r="G33" t="n">
-        <v>7.6</v>
+        <v>6.06</v>
       </c>
       <c r="H33" t="n">
         <v>6.69</v>
@@ -3703,7 +3639,7 @@
         <v>14.66</v>
       </c>
       <c r="W33" t="n">
-        <v>12.5</v>
+        <v>9.9</v>
       </c>
       <c r="X33" t="n">
         <v>9.15</v>
@@ -3715,7 +3651,7 @@
         <v>12.53</v>
       </c>
       <c r="AA33" t="n">
-        <v>15.31</v>
+        <v>15.3</v>
       </c>
       <c r="AB33" t="n">
         <v>10.24</v>
@@ -3753,7 +3689,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>8.800000000000001</v>
+        <v>6.68</v>
       </c>
       <c r="H34" t="n">
         <v>7.91</v>
@@ -3789,7 +3725,7 @@
         <v>10.36</v>
       </c>
       <c r="S34" t="n">
-        <v>13.1</v>
+        <v>13.09</v>
       </c>
       <c r="T34" t="n">
         <v>11.18</v>
@@ -3801,7 +3737,7 @@
         <v>14.71</v>
       </c>
       <c r="W34" t="n">
-        <v>19.1</v>
+        <v>9.17</v>
       </c>
       <c r="X34" t="n">
         <v>8.93</v>
@@ -3813,7 +3749,7 @@
         <v>13.1</v>
       </c>
       <c r="AA34" t="n">
-        <v>15.8</v>
+        <v>15.23</v>
       </c>
       <c r="AB34" t="n">
         <v>9.73</v>
@@ -3828,7 +3764,7 @@
         <v>14.14</v>
       </c>
       <c r="AF34" t="n">
-        <v>14.85</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="35">
@@ -3848,10 +3784,10 @@
         <v>10.47</v>
       </c>
       <c r="F35" t="n">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="G35" t="n">
-        <v>7.4</v>
+        <v>5.71</v>
       </c>
       <c r="H35" t="n">
         <v>6.53</v>
@@ -3887,7 +3823,7 @@
         <v>10.39</v>
       </c>
       <c r="S35" t="n">
-        <v>14.44</v>
+        <v>13.35</v>
       </c>
       <c r="T35" t="n">
         <v>10.45</v>
@@ -3946,10 +3882,10 @@
         <v>10.7</v>
       </c>
       <c r="F36" t="n">
-        <v>9.199999999999999</v>
+        <v>9.17</v>
       </c>
       <c r="G36" t="n">
-        <v>8.1</v>
+        <v>6.15</v>
       </c>
       <c r="H36" t="n">
         <v>5.73</v>
@@ -3985,7 +3921,7 @@
         <v>11</v>
       </c>
       <c r="S36" t="n">
-        <v>14.76</v>
+        <v>13.58</v>
       </c>
       <c r="T36" t="n">
         <v>11.6</v>
@@ -4044,10 +3980,10 @@
         <v>10.81</v>
       </c>
       <c r="F37" t="n">
-        <v>9</v>
+        <v>8.98</v>
       </c>
       <c r="G37" t="n">
-        <v>7.6</v>
+        <v>6.09</v>
       </c>
       <c r="H37" t="n">
         <v>5.36</v>
@@ -4083,7 +4019,7 @@
         <v>11.08</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66</v>
+        <v>13.5</v>
       </c>
       <c r="T37" t="n">
         <v>10.71</v>
@@ -4142,10 +4078,10 @@
         <v>10.92</v>
       </c>
       <c r="F38" t="n">
-        <v>9.300000000000001</v>
+        <v>9.31</v>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>6.49</v>
       </c>
       <c r="H38" t="n">
         <v>6.62</v>
@@ -4181,7 +4117,7 @@
         <v>11.86</v>
       </c>
       <c r="S38" t="n">
-        <v>13.74</v>
+        <v>13.52</v>
       </c>
       <c r="T38" t="n">
         <v>10.8</v>
@@ -4240,10 +4176,10 @@
         <v>9.98</v>
       </c>
       <c r="F39" t="n">
-        <v>7.7</v>
+        <v>7.72</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>6.17</v>
       </c>
       <c r="H39" t="n">
         <v>5.87</v>
@@ -4279,7 +4215,7 @@
         <v>10.74</v>
       </c>
       <c r="S39" t="n">
-        <v>13.88</v>
+        <v>13.58</v>
       </c>
       <c r="T39" t="n">
         <v>11.12</v>
@@ -4338,10 +4274,10 @@
         <v>10.29</v>
       </c>
       <c r="F40" t="n">
-        <v>9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="H40" t="n">
         <v>5.55</v>
@@ -4377,7 +4313,7 @@
         <v>12.04</v>
       </c>
       <c r="S40" t="n">
-        <v>13.94</v>
+        <v>13.57</v>
       </c>
       <c r="T40" t="n">
         <v>11.85</v>
@@ -4436,10 +4372,10 @@
         <v>11.06</v>
       </c>
       <c r="F41" t="n">
-        <v>9.5</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>8.1</v>
+        <v>6.49</v>
       </c>
       <c r="H41" t="n">
         <v>6.76</v>
@@ -4475,7 +4411,7 @@
         <v>12.6</v>
       </c>
       <c r="S41" t="n">
-        <v>13.69</v>
+        <v>13.27</v>
       </c>
       <c r="T41" t="n">
         <v>13.68</v>
@@ -4534,10 +4470,10 @@
         <v>9.630000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>8.4</v>
+        <v>8.35</v>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>6.39</v>
       </c>
       <c r="H42" t="n">
         <v>6.62</v>
@@ -4573,7 +4509,7 @@
         <v>11.54</v>
       </c>
       <c r="S42" t="n">
-        <v>12.64</v>
+        <v>12.19</v>
       </c>
       <c r="T42" t="n">
         <v>12.79</v>
@@ -4632,10 +4568,10 @@
         <v>9.119999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>8.199999999999999</v>
+        <v>8.23</v>
       </c>
       <c r="G43" t="n">
-        <v>6.9</v>
+        <v>6.45</v>
       </c>
       <c r="H43" t="n">
         <v>6.05</v>
@@ -4671,7 +4607,7 @@
         <v>11.35</v>
       </c>
       <c r="S43" t="n">
-        <v>10.81</v>
+        <v>10.39</v>
       </c>
       <c r="T43" t="n">
         <v>12.54</v>
@@ -4683,7 +4619,7 @@
         <v>12.87</v>
       </c>
       <c r="W43" t="n">
-        <v>9.789999999999999</v>
+        <v>10.48</v>
       </c>
       <c r="X43" t="n">
         <v>10.7</v>
@@ -4718,7 +4654,7 @@
         <v>2020</v>
       </c>
       <c r="B44" t="n">
-        <v>6.99</v>
+        <v>6.98</v>
       </c>
       <c r="C44" t="n">
         <v>5.99</v>
@@ -4733,7 +4669,7 @@
         <v>7.2</v>
       </c>
       <c r="G44" t="n">
-        <v>5.8</v>
+        <v>5.16</v>
       </c>
       <c r="H44" t="n">
         <v>4.84</v>
@@ -4745,7 +4681,7 @@
         <v>5.02</v>
       </c>
       <c r="K44" t="n">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="L44" t="n">
         <v>7.13</v>
@@ -4781,7 +4717,7 @@
         <v>10.36</v>
       </c>
       <c r="W44" t="n">
-        <v>8.41</v>
+        <v>7.47</v>
       </c>
       <c r="X44" t="n">
         <v>7.6</v>
@@ -4828,10 +4764,10 @@
         <v>7.06</v>
       </c>
       <c r="F45" t="n">
-        <v>6.3</v>
+        <v>6.26</v>
       </c>
       <c r="G45" t="n">
-        <v>4.8</v>
+        <v>4.71</v>
       </c>
       <c r="H45" t="n">
         <v>4.7</v>
@@ -4879,7 +4815,7 @@
         <v>9.74</v>
       </c>
       <c r="W45" t="n">
-        <v>6.71</v>
+        <v>6.49</v>
       </c>
       <c r="X45" t="n">
         <v>6.85</v>
@@ -4913,15 +4849,11 @@
       <c r="A46" t="n">
         <v>2022</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+      <c r="B46" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.75</v>
       </c>
       <c r="D46" t="n">
         <v>6.09</v>
@@ -4930,21 +4862,19 @@
         <v>6.75</v>
       </c>
       <c r="F46" t="n">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="G46" t="n">
         <v>4.08</v>
       </c>
       <c r="H46" t="n">
-        <v>4.33</v>
+        <v>4.32</v>
       </c>
       <c r="I46" t="n">
         <v>3.34</v>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+      <c r="J46" t="n">
+        <v>4.35</v>
       </c>
       <c r="K46" t="n">
         <v>5.23</v>
@@ -4952,10 +4882,8 @@
       <c r="L46" t="n">
         <v>6.28</v>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+      <c r="M46" t="n">
+        <v>7.16</v>
       </c>
       <c r="N46" t="n">
         <v>7.07</v>
@@ -5019,161 +4947,45 @@
       <c r="A47" t="n">
         <v>2023</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="AD47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="AE47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="AF47" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
